--- a/Results/CircleResults/2022.1/Human_Circle_2022.1.xlsx
+++ b/Results/CircleResults/2022.1/Human_Circle_2022.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\CircleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\CircleResults\2022.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Humano</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>% sobre optimo</t>
+  </si>
+  <si>
+    <t>Porcentaje optimo</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:S54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44:U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>14</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>7</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>48</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>13</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>8</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>16</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>27</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>22</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>31</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>120</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>63</v>
       </c>
@@ -2874,8 +2877,14 @@
       <c r="S44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>1000*($T34-C34)/$T34+300*C23</f>
         <v>2383.3333333333335</v>
@@ -2944,8 +2953,15 @@
         <f>AVERAGE(C45:R45)</f>
         <v>2267.1874999999995</v>
       </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>2417</v>
+      </c>
+      <c r="U45" s="3">
+        <f>100*S45/T45</f>
+        <v>93.801717004551065</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:R54" si="3">1000*($T35-C35)/$T35+300*C24</f>
         <v>1541.6666666666665</v>
@@ -3014,8 +3030,15 @@
         <f t="shared" ref="S46:S56" si="4">AVERAGE(C46:R46)</f>
         <v>1474.4791666666667</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>1550</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" ref="U46:U54" si="5">100*S46/T46</f>
+        <v>95.127688172043023</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="3"/>
         <v>1800</v>
@@ -3084,8 +3107,15 @@
         <f t="shared" si="4"/>
         <v>1689.5833333333335</v>
       </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>2092</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="5"/>
+        <v>80.76402166985342</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="3"/>
         <v>1491.6666666666665</v>
@@ -3154,8 +3184,15 @@
         <f t="shared" si="4"/>
         <v>1371.3541666666667</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>1492</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="5"/>
+        <v>91.91381814119751</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <f t="shared" si="3"/>
         <v>1533.3333333333335</v>
@@ -3224,8 +3261,15 @@
         <f t="shared" si="4"/>
         <v>1373.9583333333335</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>1550</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="5"/>
+        <v>88.642473118279582</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <f t="shared" si="3"/>
         <v>2066.6666666666665</v>
@@ -3294,8 +3338,15 @@
         <f t="shared" si="4"/>
         <v>1566.145833333333</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>2100</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="5"/>
+        <v>74.578373015873012</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f t="shared" si="3"/>
         <v>2275</v>
@@ -3364,8 +3415,15 @@
         <f t="shared" si="4"/>
         <v>2176.5624999999995</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>2342</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="5"/>
+        <v>92.936058923996555</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <f t="shared" si="3"/>
         <v>2316.6666666666665</v>
@@ -3434,8 +3492,15 @@
         <f t="shared" si="4"/>
         <v>2090.1041666666665</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>2367</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="5"/>
+        <v>88.301823686804667</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <f t="shared" si="3"/>
         <v>2241.6666666666665</v>
@@ -3504,8 +3569,15 @@
         <f t="shared" si="4"/>
         <v>2138.5416666666665</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>2283</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="5"/>
+        <v>93.672433931960867</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -3574,8 +3646,15 @@
         <f t="shared" si="4"/>
         <v>974.47916666666652</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>1750</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="5"/>
+        <v>55.684523809523803</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>79</v>
       </c>
@@ -3584,63 +3663,63 @@
         <v>17950</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:R55" si="5">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:R55" si="6">SUM(D45:D54)</f>
         <v>18291.666666666664</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16433.333333333336</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17091.666666666664</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17491.666666666664</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16650</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16666.666666666668</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17425</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15850.000000000002</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18516.666666666668</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16233.333333333332</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18416.666666666664</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14516.666666666668</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17033.333333333336</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17275</v>
       </c>
       <c r="R55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18116.666666666668</v>
       </c>
       <c r="S55" s="3">
@@ -3648,7 +3727,7 @@
         <v>17122.395833333332</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -3657,63 +3736,63 @@
         <v>0.90011031992779056</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:R56" si="6">D55/$I14</f>
+        <f t="shared" ref="D56:R56" si="7">D55/$I14</f>
         <v>0.91724333901648103</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82405643031457909</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85706883294888503</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87712700163808366</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83492127168789487</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83575702871661162</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87378397352321735</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79480493430949761</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9285260589041554</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8140273459699795</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92351151673185561</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72794437201216866</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85414368334837709</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86626216026476788</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90846789021495677</v>
       </c>
       <c r="S56" s="1">
